--- a/Manchester United 2018-19.xlsx
+++ b/Manchester United 2018-19.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP-System\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\PycharmProjects\Thesis_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C72F2E40-5BE2-47D4-9C99-43750A2C4FD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{897BD3ED-E74E-4C09-8A34-66AAFBC381BE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="38">
   <si>
     <t>V/S</t>
   </si>
@@ -120,9 +120,6 @@
     <t>Southampton</t>
   </si>
   <si>
-    <t xml:space="preserve">                                                                                                                                MANCHESTER UNITED SEASON ANALYSIS </t>
-  </si>
-  <si>
     <t>accuracy</t>
   </si>
   <si>
@@ -139,6 +136,9 @@
   </si>
   <si>
     <t>completeness</t>
+  </si>
+  <si>
+    <t>Bolton</t>
   </si>
 </sst>
 </file>
@@ -154,18 +154,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -186,16 +180,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -269,7 +260,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$2</c:f>
+              <c:f>Sheet1!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -290,7 +281,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$3:$H$15</c:f>
+              <c:f>Sheet1!$H$2:$H$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -347,7 +338,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$K$2</c:f>
+              <c:f>Sheet1!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -368,7 +359,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$3:$K$15</c:f>
+              <c:f>Sheet1!$K$2:$K$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -671,7 +662,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$2</c:f>
+              <c:f>Sheet1!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -721,7 +712,7 @@
           </c:trendline>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$3:$C$15</c:f>
+              <c:f>Sheet1!$C$2:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -779,7 +770,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$2</c:f>
+              <c:f>Sheet1!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -828,7 +819,7 @@
           </c:trendline>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$3:$D$15</c:f>
+              <c:f>Sheet1!$D$2:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -2168,13 +2159,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>200024</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>452436</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2204,13 +2195,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2502,135 +2493,180 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P27"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="6" max="7" width="12.140625" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.15625" customWidth="1"/>
+    <col min="4" max="4" width="13.41796875" customWidth="1"/>
+    <col min="6" max="7" width="12.15625" customWidth="1"/>
+    <col min="11" max="11" width="15.26171875" customWidth="1"/>
+    <col min="12" max="12" width="12.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="O1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1">
+        <v>44</v>
+      </c>
+      <c r="G2" s="1">
+        <v>9</v>
+      </c>
+      <c r="H2" s="1">
+        <v>11</v>
+      </c>
+      <c r="I2" s="1">
+        <v>2</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="1">
+        <v>2</v>
+      </c>
+      <c r="L2" s="1">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="M2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
       </c>
       <c r="D3" s="1">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="1">
+        <v>40</v>
+      </c>
+      <c r="G3" s="1">
+        <v>3</v>
+      </c>
+      <c r="H3" s="1">
+        <v>15</v>
+      </c>
+      <c r="I3" s="1">
+        <v>3</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="1">
         <v>1</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="1">
-        <v>44</v>
-      </c>
-      <c r="G3" s="1">
-        <v>9</v>
-      </c>
-      <c r="H3" s="1">
-        <v>11</v>
-      </c>
-      <c r="I3" s="1">
-        <v>2</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="1">
-        <v>2</v>
       </c>
       <c r="L3" s="1">
         <v>0</v>
       </c>
       <c r="M3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
@@ -2639,219 +2675,219 @@
         <v>12</v>
       </c>
       <c r="F4" s="1">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="G4" s="1">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="H4" s="1">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I4" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4" s="1">
         <v>0</v>
       </c>
       <c r="M4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F5" s="1">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G5" s="1">
         <v>24</v>
       </c>
       <c r="H5" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I5" s="1">
         <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K5" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L5" s="1">
         <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G6" s="1">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="H6" s="1">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I6" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K6" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L6" s="1">
         <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F7" s="1">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="G7" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H7" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I7" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K7" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7" s="1">
         <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F8" s="1">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G8" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H8" s="1">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="I8" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K8" s="1">
         <v>1</v>
@@ -2860,174 +2896,174 @@
         <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D9" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F9" s="1">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="G9" s="1">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H9" s="1">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I9" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9" s="1">
         <v>0</v>
       </c>
       <c r="M9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" s="1">
         <v>2</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F10" s="1">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="G10" s="1">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="H10" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I10" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K10" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L10" s="1">
         <v>0</v>
       </c>
       <c r="M10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" s="1">
         <v>2</v>
       </c>
       <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="1">
+        <v>51</v>
+      </c>
+      <c r="G11" s="1">
+        <v>9</v>
+      </c>
+      <c r="H11" s="1">
+        <v>14</v>
+      </c>
+      <c r="I11" s="1">
+        <v>8</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="1">
         <v>2</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="1">
-        <v>42</v>
-      </c>
-      <c r="G11" s="1">
-        <v>4</v>
-      </c>
-      <c r="H11" s="1">
-        <v>15</v>
-      </c>
-      <c r="I11" s="1">
-        <v>3</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K11" s="1">
-        <v>5</v>
       </c>
       <c r="L11" s="1">
         <v>0</v>
       </c>
       <c r="M11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C12" s="1">
         <v>2</v>
@@ -3039,119 +3075,119 @@
         <v>9</v>
       </c>
       <c r="F12" s="1">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G12" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H12" s="1">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I12" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K12" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12" s="1">
         <v>0</v>
       </c>
       <c r="M12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F13" s="1">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G13" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H13" s="1">
         <v>11</v>
       </c>
       <c r="I13" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K13" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13" s="1">
         <v>0</v>
       </c>
       <c r="M13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="1">
+        <v>60</v>
+      </c>
+      <c r="G14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="1">
-        <v>1</v>
-      </c>
-      <c r="D14" s="1">
-        <v>3</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="1">
-        <v>38</v>
-      </c>
-      <c r="G14" s="1">
-        <v>3</v>
-      </c>
       <c r="H14" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I14" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K14" s="1">
         <v>1</v>
@@ -3160,55 +3196,37 @@
         <v>0</v>
       </c>
       <c r="M14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" s="1">
-        <v>60</v>
-      </c>
-      <c r="G15" s="1">
-        <v>12</v>
-      </c>
-      <c r="H15" s="1">
-        <v>13</v>
-      </c>
-      <c r="I15" s="1">
-        <v>10</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
       <c r="J15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K15" s="1">
-        <v>1</v>
-      </c>
-      <c r="L15" s="1">
-        <v>0</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
       <c r="M15" t="s">
         <v>35</v>
       </c>
@@ -3222,54 +3240,67 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="1">
+        <v>4</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="1">
+        <v>76</v>
+      </c>
+      <c r="G16" s="1">
+        <v>5</v>
+      </c>
+      <c r="H16" s="1">
+        <v>6</v>
+      </c>
+      <c r="I16" s="1">
+        <v>8</v>
+      </c>
       <c r="J16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K16" s="1"/>
+      <c r="K16" s="1">
+        <v>1</v>
+      </c>
       <c r="L16" s="1"/>
       <c r="M16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="24" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="14:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="14:14" x14ac:dyDescent="0.55000000000000004">
       <c r="N24" s="3"/>
     </row>
-    <row r="25" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="14:14" x14ac:dyDescent="0.55000000000000004">
       <c r="N25" s="3"/>
     </row>
-    <row r="26" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="14:14" x14ac:dyDescent="0.55000000000000004">
       <c r="N26" s="3"/>
     </row>
-    <row r="27" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N27" s="3"/>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:XFD1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
